--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14145" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="0.1" sheetId="5" r:id="rId1"/>
-    <sheet name="0.2" sheetId="6" r:id="rId2"/>
-    <sheet name="0.4" sheetId="7" r:id="rId3"/>
-    <sheet name="grafieken" sheetId="4" r:id="rId4"/>
+    <sheet name="grafieken" sheetId="4" r:id="rId1"/>
+    <sheet name="0.1" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="0.2" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="0.4" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="new 0.1" sheetId="10" r:id="rId5"/>
+    <sheet name="new 0.2" sheetId="11" r:id="rId6"/>
+    <sheet name="new 0.4" sheetId="12" r:id="rId7"/>
+    <sheet name="0.1 opti" sheetId="14" r:id="rId8"/>
+    <sheet name="0.4 opti" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="stat" localSheetId="1">'0.2'!$A$1:$D$30</definedName>
-    <definedName name="stat" localSheetId="2">'0.4'!$A$1:$D$30</definedName>
-    <definedName name="stat_1" localSheetId="0">'0.1'!$A$1:$D$30</definedName>
+    <definedName name="stat" localSheetId="2">'0.2'!$A$1:$D$30</definedName>
+    <definedName name="stat" localSheetId="3">'0.4'!$A$1:$D$30</definedName>
+    <definedName name="stat_1" localSheetId="1">'0.1'!$A$2:$D$31</definedName>
+    <definedName name="stat_1" localSheetId="7">'0.1 opti'!$A$2:$D$31</definedName>
+    <definedName name="stat_1" localSheetId="8">'0.4 opti'!$A$2:$D$31</definedName>
+    <definedName name="stat_1" localSheetId="4">'new 0.1'!$A$2:$D$31</definedName>
+    <definedName name="stat_1" localSheetId="5">'new 0.2'!$A$2:$D$31</definedName>
+    <definedName name="stat_1" localSheetId="6">'new 0.4'!$A$2:$D$31</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,28 +38,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="stat.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:jorik:Documents:workspace:TMI:stat.txt" decimal="," thousands="." tab="0" space="1" consecutive="1">
-      <textFields count="4">
-        <textField type="text"/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" name="stat.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:jorik:Documents:workspace:TMI:stat.txt" decimal="," thousands="." space="1" consecutive="1">
-      <textFields count="4">
-        <textField type="text"/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="3" name="stat.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:jorik:Documents:workspace:TMI:stat.txt" decimal="," thousands="." space="1" consecutive="1">
+  <connection id="1" name="stat" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="H:\Files\workspace\TMI\stat.txt" space="1" consecutive="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -58,8 +48,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="stat.txt3" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:jorik:Documents:workspace:TMI:stat.txt" decimal="," thousands="." space="1" consecutive="1">
+  <connection id="2" name="stat.txt3" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="H:\Files\workspace\TMI\stat.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -68,8 +58,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="stat.txt4" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:jorik:Documents:workspace:TMI:stat.txt" decimal="," thousands="." space="1" consecutive="1">
+  <connection id="3" name="stat.txt4" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:jorik:Documents:workspace:TMI:stat.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -78,8 +68,38 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="stat.txt5" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:jorik:Documents:workspace:TMI:stat.txt" decimal="," thousands="." space="1" consecutive="1">
+  <connection id="4" name="stat.txt5" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:jorik:Documents:workspace:TMI:stat.txt" decimal="," thousands="." space="1" consecutive="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="stat1" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="H:\Files\workspace\TMI\stat.txt" space="1" consecutive="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="stat2" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="H:\Files\workspace\TMI\stat.txt" space="1" consecutive="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="stat3" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="H:\Files\workspace\TMI\stat.txt" space="1" consecutive="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -89,6 +109,20 @@
     </textPr>
   </connection>
 </connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
+  <si>
+    <t>Algoritme 1</t>
+  </si>
+  <si>
+    <t>Algoritme 2</t>
+  </si>
+  <si>
+    <t>Algoritme 3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -130,13 +164,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-BE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -147,6 +186,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Uitvoerinstijd met</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> r&lt;0.1</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -154,10 +217,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0731953461957606"/>
-          <c:y val="0.0454545454545454"/>
-          <c:w val="0.749379441604887"/>
-          <c:h val="0.875498005931077"/>
+          <c:x val="0.10524409722222222"/>
+          <c:y val="0.13112667046604404"/>
+          <c:w val="0.69087239583333326"/>
+          <c:h val="0.70447665254164837"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -166,200 +229,214 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new 0.1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.1'!$A$1:$A$30</c:f>
+              <c:f>'new 0.1'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100.0</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300.0</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400.0</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600.0</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700.0</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900.0</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000.0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.1'!$B$1:$B$30</c:f>
+              <c:f>'new 0.1'!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>61.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92.0</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>152.0</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>175.0</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>217.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>250.0</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>325.0</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>348.0</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>370.0</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>419.0</c:v>
+                  <c:v>723</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>469.0</c:v>
+                  <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>549.0</c:v>
+                  <c:v>895</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>602.0</c:v>
+                  <c:v>995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>685.0</c:v>
+                  <c:v>1099</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>710.0</c:v>
+                  <c:v>1214</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>799.0</c:v>
+                  <c:v>1319</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>876.0</c:v>
+                  <c:v>1439</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>935.0</c:v>
+                  <c:v>1571</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1080.0</c:v>
+                  <c:v>1698</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1126.0</c:v>
+                  <c:v>1816</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1193.0</c:v>
+                  <c:v>1957</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1259.0</c:v>
+                  <c:v>2114</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1555.0</c:v>
+                  <c:v>2325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -369,200 +446,214 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new 0.1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.1'!$A$1:$A$30</c:f>
+              <c:f>'new 0.1'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100.0</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300.0</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400.0</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600.0</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700.0</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900.0</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000.0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.1'!$C$1:$C$30</c:f>
+              <c:f>'new 0.1'!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>56.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>124.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>148.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>179.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>208.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>249.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>303.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>308.0</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>353.0</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>445.0</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>433.0</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>518.0</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>556.0</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>670.0</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>662.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>707.0</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>759.0</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>814.0</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>944.0</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>982.0</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1086.0</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1224.0</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,200 +663,214 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new 0.1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.1'!$A$1:$A$30</c:f>
+              <c:f>'new 0.1'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100.0</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300.0</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400.0</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600.0</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700.0</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900.0</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000.0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.1'!$D$1:$D$30</c:f>
+              <c:f>'new 0.1'!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -780,44 +885,96 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127372904"/>
-        <c:axId val="-2127197992"/>
+        <c:axId val="115290880"/>
+        <c:axId val="115292416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127372904"/>
+        <c:axId val="115290880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>Aantal cirkels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127197992"/>
+        <c:crossAx val="115292416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127197992"/>
+        <c:axId val="115292416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127372904"/>
+        <c:crossAx val="115290880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82268072916666668"/>
+          <c:y val="0.37379069870508841"/>
+          <c:w val="0.17084427083333334"/>
+          <c:h val="0.24042391107484956"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -826,7 +983,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -835,7 +992,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-BE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -846,209 +1003,257 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Uitvoerinstijd met</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> r&lt;0.2</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10524409722222222"/>
+          <c:y val="0.13112667046604404"/>
+          <c:w val="0.69087239583333326"/>
+          <c:h val="0.70447665254164837"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new 0.2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.2'!$A$1:$A$30</c:f>
+              <c:f>'new 0.2'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100.0</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300.0</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400.0</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600.0</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700.0</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900.0</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000.0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.2'!$B$1:$B$30</c:f>
+              <c:f>'new 0.2'!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>171.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>222.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>166.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>202.0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>281.0</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>373.0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>422.0</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>526.0</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>632.0</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>740.0</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>901.0</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1035.0</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1165.0</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1273.0</c:v>
+                  <c:v>723</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1428.0</c:v>
+                  <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1612.0</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1779.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1959.0</c:v>
+                  <c:v>1112</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2275.0</c:v>
+                  <c:v>1227</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2405.0</c:v>
+                  <c:v>1321</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2608.0</c:v>
+                  <c:v>1441</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2899.0</c:v>
+                  <c:v>1598</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3138.0</c:v>
+                  <c:v>1689</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3324.0</c:v>
+                  <c:v>1820</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3632.0</c:v>
+                  <c:v>1957</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3885.0</c:v>
+                  <c:v>2103</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4350.0</c:v>
+                  <c:v>2246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,200 +1263,214 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new 0.2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.2'!$A$1:$A$30</c:f>
+              <c:f>'new 0.2'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100.0</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300.0</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400.0</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600.0</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700.0</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900.0</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000.0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.2'!$C$1:$C$30</c:f>
+              <c:f>'new 0.2'!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>65.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>107.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>187.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>253.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>328.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>396.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>496.0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>623.0</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>706.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>816.0</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>916.0</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1064.0</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1220.0</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1328.0</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1477.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1667.0</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1848.0</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2030.0</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2254.0</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2427.0</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2748.0</c:v>
+                  <c:v>581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2903.0</c:v>
+                  <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3181.0</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3369.0</c:v>
+                  <c:v>785</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3817.0</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4096.0</c:v>
+                  <c:v>887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,200 +1480,214 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new 0.2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.2'!$A$1:$A$30</c:f>
+              <c:f>'new 0.2'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100.0</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300.0</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400.0</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600.0</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700.0</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900.0</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000.0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.2'!$D$1:$D$30</c:f>
+              <c:f>'new 0.2'!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,44 +1702,96 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126813592"/>
-        <c:axId val="-2126815016"/>
+        <c:axId val="116225152"/>
+        <c:axId val="161989760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126813592"/>
+        <c:axId val="116225152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>Aantal cirkels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126815016"/>
+        <c:crossAx val="161989760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126815016"/>
+        <c:axId val="161989760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126813592"/>
+        <c:crossAx val="116225152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82268072916666668"/>
+          <c:y val="0.37379069870508841"/>
+          <c:w val="0.17084427083333334"/>
+          <c:h val="0.24042391107484956"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1515,7 +1800,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1524,7 +1809,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-BE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1535,209 +1820,257 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Uitvoerinstijd met</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> r&lt;0.4</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10524409722222222"/>
+          <c:y val="0.13112667046604404"/>
+          <c:w val="0.69087239583333326"/>
+          <c:h val="0.70447665254164837"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new 0.4'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.4'!$A$1:$A$30</c:f>
+              <c:f>'new 0.4'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100.0</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300.0</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400.0</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600.0</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700.0</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900.0</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000.0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.4'!$B$1:$B$30</c:f>
+              <c:f>'new 0.4'!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>262.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>190.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>278.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>415.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>575.0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>745.0</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1010.0</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1230.0</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1544.0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1775.0</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2405.0</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2464.0</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2821.0</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3254.0</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3731.0</c:v>
+                  <c:v>739</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4353.0</c:v>
+                  <c:v>854</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4751.0</c:v>
+                  <c:v>922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5255.0</c:v>
+                  <c:v>1094</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5986.0</c:v>
+                  <c:v>1128</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6551.0</c:v>
+                  <c:v>1265</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7227.0</c:v>
+                  <c:v>1352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8049.0</c:v>
+                  <c:v>1581</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8948.0</c:v>
+                  <c:v>1597</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9671.0</c:v>
+                  <c:v>1785</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10386.0</c:v>
+                  <c:v>1864</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11291.0</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12170.0</c:v>
+                  <c:v>2214</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13049.0</c:v>
+                  <c:v>2301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,200 +2080,214 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new 0.4'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.4'!$A$1:$A$30</c:f>
+              <c:f>'new 0.4'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100.0</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300.0</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400.0</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600.0</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700.0</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900.0</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000.0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.4'!$C$1:$C$30</c:f>
+              <c:f>'new 0.4'!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>139.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>271.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>455.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>569.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>752.0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1008.0</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1203.0</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1427.0</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1812.0</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2163.0</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2466.0</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2821.0</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3206.0</c:v>
+                  <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3696.0</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4255.0</c:v>
+                  <c:v>526</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4719.0</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5304.0</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5891.0</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6350.0</c:v>
+                  <c:v>786</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7118.0</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8014.0</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8812.0</c:v>
+                  <c:v>1015</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9558.0</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10373.0</c:v>
+                  <c:v>1181</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11344.0</c:v>
+                  <c:v>1269</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12124.0</c:v>
+                  <c:v>1367</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13340.0</c:v>
+                  <c:v>1523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,200 +2297,214 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new 0.4'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.4'!$A$1:$A$30</c:f>
+              <c:f>'new 0.4'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100.0</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300.0</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400.0</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600.0</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700.0</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900.0</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000.0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.4'!$D$1:$D$30</c:f>
+              <c:f>'new 0.4'!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,44 +2519,96 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2128372696"/>
-        <c:axId val="-2128794712"/>
+        <c:axId val="81946496"/>
+        <c:axId val="83905920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2128372696"/>
+        <c:axId val="81946496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>Aantal cirkels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128794712"/>
+        <c:crossAx val="83905920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128794712"/>
+        <c:axId val="83905920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128372696"/>
+        <c:crossAx val="81946496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82268072916666668"/>
+          <c:y val="0.37379069870508841"/>
+          <c:w val="0.17084427083333334"/>
+          <c:h val="0.24042391107484956"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2204,7 +2617,1632 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Uitvoerinstijd met</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> r&lt;0.1, met optimalisatie</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10524409722222222"/>
+          <c:y val="0.13112667046604404"/>
+          <c:w val="0.69087239583333326"/>
+          <c:h val="0.70447665254164837"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.1 opti'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.1 opti'!$A$3:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.1 opti'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.1 opti'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.1 opti'!$A$3:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.1 opti'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.1 opti'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.1 opti'!$A$3:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.1 opti'!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="91330432"/>
+        <c:axId val="91343872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="91330432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>Aantal cirkels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91343872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="91343872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91330432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82268072916666668"/>
+          <c:y val="0.37379069870508841"/>
+          <c:w val="0.17084427083333334"/>
+          <c:h val="0.24042391107484956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Uitvoerinstijd met</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> r&lt;0.4, met optimalisatie</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10524409722222222"/>
+          <c:y val="0.13112667046604404"/>
+          <c:w val="0.69087239583333326"/>
+          <c:h val="0.70447665254164837"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.4 opti'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.4 opti'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.4 opti'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.4 opti'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.4 opti'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.4 opti'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.4 opti'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.4 opti'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.4 opti'!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="6491520"/>
+        <c:axId val="51971584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="6491520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>Aantal cirkels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51971584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51971584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="6491520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82268072916666668"/>
+          <c:y val="0.37379069870508841"/>
+          <c:w val="0.17084427083333334"/>
+          <c:h val="0.24042391107484956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2215,20 +4253,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>447679</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>340279</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27154</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Chart 2" title="Uitvoerinstijd bij straal 0.1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2244,21 +4284,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>283125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>198601</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="8" name="Chart 7" title="Uitvoerinstijd bij straal 0.1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2274,21 +4316,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>198601</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="9" name="Chart 8" title="Uitvoerinstijd bij straal 0.1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2302,19 +4346,103 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9" title="Uitvoerinstijd bij straal 0.1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>45000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112876</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10" title="Uitvoerinstijd bij straal 0.1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat_1" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2639,438 +4767,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1">
-        <v>100</v>
-      </c>
-      <c r="B1">
-        <v>61</v>
-      </c>
-      <c r="C1">
-        <v>56</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>200</v>
-      </c>
-      <c r="B2">
-        <v>145</v>
-      </c>
-      <c r="C2">
-        <v>86</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>300</v>
-      </c>
-      <c r="B3">
-        <v>119</v>
-      </c>
-      <c r="C3">
-        <v>64</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>400</v>
-      </c>
-      <c r="B4">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>500</v>
-      </c>
-      <c r="B5">
-        <v>47</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>600</v>
-      </c>
-      <c r="B6">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>43</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>700</v>
-      </c>
-      <c r="B7">
-        <v>65</v>
-      </c>
-      <c r="C7">
-        <v>69</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>800</v>
-      </c>
-      <c r="B8">
-        <v>92</v>
-      </c>
-      <c r="C8">
-        <v>83</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>900</v>
-      </c>
-      <c r="B9">
-        <v>109</v>
-      </c>
-      <c r="C9">
-        <v>92</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>1000</v>
-      </c>
-      <c r="B10">
-        <v>152</v>
-      </c>
-      <c r="C10">
-        <v>124</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1100</v>
-      </c>
-      <c r="B11">
-        <v>175</v>
-      </c>
-      <c r="C11">
-        <v>148</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>1200</v>
-      </c>
-      <c r="B12">
-        <v>217</v>
-      </c>
-      <c r="C12">
-        <v>179</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>1300</v>
-      </c>
-      <c r="B13">
-        <v>250</v>
-      </c>
-      <c r="C13">
-        <v>208</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>1400</v>
-      </c>
-      <c r="B14">
-        <v>325</v>
-      </c>
-      <c r="C14">
-        <v>249</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>1500</v>
-      </c>
-      <c r="B15">
-        <v>348</v>
-      </c>
-      <c r="C15">
-        <v>303</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>1600</v>
-      </c>
-      <c r="B16">
-        <v>370</v>
-      </c>
-      <c r="C16">
-        <v>308</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>1700</v>
-      </c>
-      <c r="B17">
-        <v>419</v>
-      </c>
-      <c r="C17">
-        <v>353</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>1800</v>
-      </c>
-      <c r="B18">
-        <v>469</v>
-      </c>
-      <c r="C18">
-        <v>445</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>1900</v>
-      </c>
-      <c r="B19">
-        <v>549</v>
-      </c>
-      <c r="C19">
-        <v>433</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>2000</v>
-      </c>
-      <c r="B20">
-        <v>602</v>
-      </c>
-      <c r="C20">
-        <v>518</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>2100</v>
-      </c>
-      <c r="B21">
-        <v>685</v>
-      </c>
-      <c r="C21">
-        <v>556</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>2200</v>
-      </c>
-      <c r="B22">
-        <v>710</v>
-      </c>
-      <c r="C22">
-        <v>670</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>2300</v>
-      </c>
-      <c r="B23">
-        <v>799</v>
-      </c>
-      <c r="C23">
-        <v>662</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>2400</v>
-      </c>
-      <c r="B24">
-        <v>876</v>
-      </c>
-      <c r="C24">
-        <v>707</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>2500</v>
-      </c>
-      <c r="B25">
-        <v>935</v>
-      </c>
-      <c r="C25">
-        <v>759</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>2600</v>
-      </c>
-      <c r="B26">
-        <v>1080</v>
-      </c>
-      <c r="C26">
-        <v>814</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>2700</v>
-      </c>
-      <c r="B27">
-        <v>1126</v>
-      </c>
-      <c r="C27">
-        <v>944</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>2800</v>
-      </c>
-      <c r="B28">
-        <v>1193</v>
-      </c>
-      <c r="C28">
-        <v>982</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>2900</v>
-      </c>
-      <c r="B29">
-        <v>1259</v>
-      </c>
-      <c r="C29">
-        <v>1086</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>3000</v>
-      </c>
-      <c r="B30">
-        <v>1555</v>
-      </c>
-      <c r="C30">
-        <v>1224</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3081,433 +4787,447 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="3.875" customWidth="1"/>
+    <col min="4" max="4" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>100</v>
       </c>
-      <c r="B1">
-        <v>171</v>
-      </c>
-      <c r="C1">
-        <v>65</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>200</v>
       </c>
-      <c r="B2">
-        <v>222</v>
-      </c>
-      <c r="C2">
-        <v>72</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>300</v>
       </c>
-      <c r="B3">
-        <v>44</v>
-      </c>
-      <c r="C3">
-        <v>54</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>400</v>
       </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>64</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>500</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>107</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="B6">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>600</v>
       </c>
-      <c r="B6">
-        <v>166</v>
-      </c>
-      <c r="C6">
-        <v>130</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="B7">
+        <v>91</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>700</v>
       </c>
-      <c r="B7">
-        <v>202</v>
-      </c>
-      <c r="C7">
-        <v>187</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="B8">
+        <v>124</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>800</v>
       </c>
-      <c r="B8">
-        <v>281</v>
-      </c>
-      <c r="C8">
-        <v>253</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="B9">
+        <v>158</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>900</v>
       </c>
-      <c r="B9">
-        <v>373</v>
-      </c>
-      <c r="C9">
-        <v>328</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1000</v>
       </c>
-      <c r="B10">
+      <c r="B11">
+        <v>248</v>
+      </c>
+      <c r="C11">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12">
+        <v>313</v>
+      </c>
+      <c r="C12">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+      <c r="B13">
+        <v>360</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+      <c r="B14">
         <v>422</v>
       </c>
-      <c r="C10">
-        <v>396</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1100</v>
-      </c>
-      <c r="B11">
-        <v>526</v>
-      </c>
-      <c r="C11">
-        <v>496</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>1200</v>
-      </c>
-      <c r="B12">
-        <v>632</v>
-      </c>
-      <c r="C12">
-        <v>623</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>1300</v>
-      </c>
-      <c r="B13">
-        <v>740</v>
-      </c>
-      <c r="C13">
-        <v>706</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+      <c r="C14">
+        <v>82</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>1400</v>
       </c>
-      <c r="B14">
-        <v>901</v>
-      </c>
-      <c r="C14">
-        <v>816</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+      <c r="B15">
+        <v>488</v>
+      </c>
+      <c r="C15">
+        <v>94</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>1500</v>
       </c>
-      <c r="B15">
-        <v>1035</v>
-      </c>
-      <c r="C15">
-        <v>916</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+      <c r="B16">
+        <v>558</v>
+      </c>
+      <c r="C16">
+        <v>112</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>1600</v>
       </c>
-      <c r="B16">
-        <v>1165</v>
-      </c>
-      <c r="C16">
-        <v>1064</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="B17">
+        <v>635</v>
+      </c>
+      <c r="C17">
+        <v>139</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>1700</v>
       </c>
-      <c r="B17">
-        <v>1273</v>
-      </c>
-      <c r="C17">
-        <v>1220</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+      <c r="B18">
+        <v>723</v>
+      </c>
+      <c r="C18">
+        <v>139</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>1800</v>
       </c>
-      <c r="B18">
-        <v>1428</v>
-      </c>
-      <c r="C18">
-        <v>1328</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+      <c r="B19">
+        <v>809</v>
+      </c>
+      <c r="C19">
+        <v>155</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>1900</v>
       </c>
-      <c r="B19">
-        <v>1612</v>
-      </c>
-      <c r="C19">
-        <v>1477</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+      <c r="B20">
+        <v>895</v>
+      </c>
+      <c r="C20">
+        <v>175</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>2000</v>
       </c>
-      <c r="B20">
-        <v>1779</v>
-      </c>
-      <c r="C20">
-        <v>1667</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+      <c r="B21">
+        <v>995</v>
+      </c>
+      <c r="C21">
+        <v>192</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>2100</v>
       </c>
-      <c r="B21">
-        <v>1959</v>
-      </c>
-      <c r="C21">
-        <v>1848</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+      <c r="B22">
+        <v>1099</v>
+      </c>
+      <c r="C22">
+        <v>221</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2200</v>
       </c>
-      <c r="B22">
-        <v>2275</v>
-      </c>
-      <c r="C22">
-        <v>2030</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+      <c r="B23">
+        <v>1214</v>
+      </c>
+      <c r="C23">
+        <v>234</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2300</v>
       </c>
-      <c r="B23">
-        <v>2405</v>
-      </c>
-      <c r="C23">
-        <v>2254</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+      <c r="B24">
+        <v>1319</v>
+      </c>
+      <c r="C24">
+        <v>256</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>2400</v>
       </c>
-      <c r="B24">
-        <v>2608</v>
-      </c>
-      <c r="C24">
-        <v>2427</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+      <c r="B25">
+        <v>1439</v>
+      </c>
+      <c r="C25">
+        <v>279</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>2500</v>
       </c>
-      <c r="B25">
-        <v>2899</v>
-      </c>
-      <c r="C25">
-        <v>2748</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
+      <c r="B26">
+        <v>1571</v>
+      </c>
+      <c r="C26">
+        <v>303</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>2600</v>
       </c>
-      <c r="B26">
-        <v>3138</v>
-      </c>
-      <c r="C26">
-        <v>2903</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
+      <c r="B27">
+        <v>1698</v>
+      </c>
+      <c r="C27">
+        <v>327</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2700</v>
       </c>
-      <c r="B27">
-        <v>3324</v>
-      </c>
-      <c r="C27">
-        <v>3181</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
+      <c r="B28">
+        <v>1816</v>
+      </c>
+      <c r="C28">
+        <v>355</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>2800</v>
       </c>
-      <c r="B28">
-        <v>3632</v>
-      </c>
-      <c r="C28">
-        <v>3369</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
+      <c r="B29">
+        <v>1957</v>
+      </c>
+      <c r="C29">
+        <v>380</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2900</v>
       </c>
-      <c r="B29">
-        <v>3885</v>
-      </c>
-      <c r="C29">
-        <v>3817</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
+      <c r="B30">
+        <v>2114</v>
+      </c>
+      <c r="C30">
+        <v>408</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>3000</v>
       </c>
-      <c r="B30">
-        <v>4350</v>
-      </c>
-      <c r="C30">
-        <v>4096</v>
-      </c>
-      <c r="D30">
+      <c r="B31">
+        <v>2325</v>
+      </c>
+      <c r="C31">
+        <v>436</v>
+      </c>
+      <c r="D31">
         <v>0</v>
       </c>
     </row>
@@ -3525,430 +5245,428 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1">
-        <v>100</v>
-      </c>
-      <c r="B1">
-        <v>262</v>
-      </c>
-      <c r="C1">
-        <v>139</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
       <c r="B2">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>300</v>
       </c>
       <c r="B3">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>400</v>
       </c>
       <c r="B4">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="C4">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500</v>
       </c>
       <c r="B5">
-        <v>278</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>600</v>
       </c>
       <c r="B6">
-        <v>415</v>
+        <v>166</v>
       </c>
       <c r="C6">
-        <v>455</v>
+        <v>130</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>700</v>
       </c>
       <c r="B7">
-        <v>575</v>
+        <v>202</v>
       </c>
       <c r="C7">
-        <v>569</v>
+        <v>187</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>800</v>
       </c>
       <c r="B8">
-        <v>745</v>
+        <v>281</v>
       </c>
       <c r="C8">
-        <v>752</v>
+        <v>253</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>900</v>
       </c>
       <c r="B9">
-        <v>1010</v>
+        <v>373</v>
       </c>
       <c r="C9">
-        <v>1008</v>
+        <v>328</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1000</v>
       </c>
       <c r="B10">
-        <v>1230</v>
+        <v>422</v>
       </c>
       <c r="C10">
-        <v>1203</v>
+        <v>396</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1100</v>
       </c>
       <c r="B11">
-        <v>1544</v>
+        <v>526</v>
       </c>
       <c r="C11">
-        <v>1427</v>
+        <v>496</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1200</v>
       </c>
       <c r="B12">
-        <v>1775</v>
+        <v>632</v>
       </c>
       <c r="C12">
-        <v>1812</v>
+        <v>623</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1300</v>
       </c>
       <c r="B13">
-        <v>2405</v>
+        <v>740</v>
       </c>
       <c r="C13">
-        <v>2163</v>
+        <v>706</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1400</v>
       </c>
       <c r="B14">
-        <v>2464</v>
+        <v>901</v>
       </c>
       <c r="C14">
-        <v>2466</v>
+        <v>816</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1500</v>
       </c>
       <c r="B15">
-        <v>2821</v>
+        <v>1035</v>
       </c>
       <c r="C15">
-        <v>2821</v>
+        <v>916</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1600</v>
       </c>
       <c r="B16">
-        <v>3254</v>
+        <v>1165</v>
       </c>
       <c r="C16">
-        <v>3206</v>
+        <v>1064</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1700</v>
       </c>
       <c r="B17">
-        <v>3731</v>
+        <v>1273</v>
       </c>
       <c r="C17">
-        <v>3696</v>
+        <v>1220</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1800</v>
       </c>
       <c r="B18">
-        <v>4353</v>
+        <v>1428</v>
       </c>
       <c r="C18">
-        <v>4255</v>
+        <v>1328</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1900</v>
       </c>
       <c r="B19">
-        <v>4751</v>
+        <v>1612</v>
       </c>
       <c r="C19">
-        <v>4719</v>
+        <v>1477</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2000</v>
       </c>
       <c r="B20">
-        <v>5255</v>
+        <v>1779</v>
       </c>
       <c r="C20">
-        <v>5304</v>
+        <v>1667</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2100</v>
       </c>
       <c r="B21">
-        <v>5986</v>
+        <v>1959</v>
       </c>
       <c r="C21">
-        <v>5891</v>
+        <v>1848</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2200</v>
       </c>
       <c r="B22">
-        <v>6551</v>
+        <v>2275</v>
       </c>
       <c r="C22">
-        <v>6350</v>
+        <v>2030</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2300</v>
       </c>
       <c r="B23">
-        <v>7227</v>
+        <v>2405</v>
       </c>
       <c r="C23">
-        <v>7118</v>
+        <v>2254</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2400</v>
       </c>
       <c r="B24">
-        <v>8049</v>
+        <v>2608</v>
       </c>
       <c r="C24">
-        <v>8014</v>
+        <v>2427</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2500</v>
       </c>
       <c r="B25">
-        <v>8948</v>
+        <v>2899</v>
       </c>
       <c r="C25">
-        <v>8812</v>
+        <v>2748</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2600</v>
       </c>
       <c r="B26">
-        <v>9671</v>
+        <v>3138</v>
       </c>
       <c r="C26">
-        <v>9558</v>
+        <v>2903</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2700</v>
       </c>
       <c r="B27">
-        <v>10386</v>
+        <v>3324</v>
       </c>
       <c r="C27">
-        <v>10373</v>
+        <v>3181</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2800</v>
       </c>
       <c r="B28">
-        <v>11291</v>
+        <v>3632</v>
       </c>
       <c r="C28">
-        <v>11344</v>
+        <v>3369</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2900</v>
       </c>
       <c r="B29">
-        <v>12170</v>
+        <v>3885</v>
       </c>
       <c r="C29">
-        <v>12124</v>
+        <v>3817</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3000</v>
       </c>
       <c r="B30">
-        <v>13049</v>
+        <v>4350</v>
       </c>
       <c r="C30">
-        <v>13340</v>
+        <v>4096</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3966,20 +5684,2695 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>158</v>
+      </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3">
+        <v>109</v>
+      </c>
+      <c r="C3">
+        <v>113</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>400</v>
+      </c>
+      <c r="B4">
+        <v>190</v>
+      </c>
+      <c r="C4">
+        <v>193</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <v>278</v>
+      </c>
+      <c r="C5">
+        <v>271</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>600</v>
+      </c>
+      <c r="B6">
+        <v>415</v>
+      </c>
+      <c r="C6">
+        <v>455</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>700</v>
+      </c>
+      <c r="B7">
+        <v>575</v>
+      </c>
+      <c r="C7">
+        <v>569</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>800</v>
+      </c>
+      <c r="B8">
+        <v>745</v>
+      </c>
+      <c r="C8">
+        <v>752</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>900</v>
+      </c>
+      <c r="B9">
+        <v>1010</v>
+      </c>
+      <c r="C9">
+        <v>1008</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>1230</v>
+      </c>
+      <c r="C10">
+        <v>1203</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1100</v>
+      </c>
+      <c r="B11">
+        <v>1544</v>
+      </c>
+      <c r="C11">
+        <v>1427</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1200</v>
+      </c>
+      <c r="B12">
+        <v>1775</v>
+      </c>
+      <c r="C12">
+        <v>1812</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1300</v>
+      </c>
+      <c r="B13">
+        <v>2405</v>
+      </c>
+      <c r="C13">
+        <v>2163</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1400</v>
+      </c>
+      <c r="B14">
+        <v>2464</v>
+      </c>
+      <c r="C14">
+        <v>2466</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1500</v>
+      </c>
+      <c r="B15">
+        <v>2821</v>
+      </c>
+      <c r="C15">
+        <v>2821</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1600</v>
+      </c>
+      <c r="B16">
+        <v>3254</v>
+      </c>
+      <c r="C16">
+        <v>3206</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1700</v>
+      </c>
+      <c r="B17">
+        <v>3731</v>
+      </c>
+      <c r="C17">
+        <v>3696</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1800</v>
+      </c>
+      <c r="B18">
+        <v>4353</v>
+      </c>
+      <c r="C18">
+        <v>4255</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1900</v>
+      </c>
+      <c r="B19">
+        <v>4751</v>
+      </c>
+      <c r="C19">
+        <v>4719</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2000</v>
+      </c>
+      <c r="B20">
+        <v>5255</v>
+      </c>
+      <c r="C20">
+        <v>5304</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2100</v>
+      </c>
+      <c r="B21">
+        <v>5986</v>
+      </c>
+      <c r="C21">
+        <v>5891</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2200</v>
+      </c>
+      <c r="B22">
+        <v>6551</v>
+      </c>
+      <c r="C22">
+        <v>6350</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2300</v>
+      </c>
+      <c r="B23">
+        <v>7227</v>
+      </c>
+      <c r="C23">
+        <v>7118</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2400</v>
+      </c>
+      <c r="B24">
+        <v>8049</v>
+      </c>
+      <c r="C24">
+        <v>8014</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2500</v>
+      </c>
+      <c r="B25">
+        <v>8948</v>
+      </c>
+      <c r="C25">
+        <v>8812</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2600</v>
+      </c>
+      <c r="B26">
+        <v>9671</v>
+      </c>
+      <c r="C26">
+        <v>9558</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2700</v>
+      </c>
+      <c r="B27">
+        <v>10386</v>
+      </c>
+      <c r="C27">
+        <v>10373</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2800</v>
+      </c>
+      <c r="B28">
+        <v>11291</v>
+      </c>
+      <c r="C28">
+        <v>11344</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2900</v>
+      </c>
+      <c r="B29">
+        <v>12170</v>
+      </c>
+      <c r="C29">
+        <v>12124</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3000</v>
+      </c>
+      <c r="B30">
+        <v>13049</v>
+      </c>
+      <c r="C30">
+        <v>13340</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" customWidth="1"/>
+    <col min="4" max="4" width="1.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>91</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>124</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>158</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>248</v>
+      </c>
+      <c r="C11">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12">
+        <v>313</v>
+      </c>
+      <c r="C12">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+      <c r="B13">
+        <v>360</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+      <c r="B14">
+        <v>422</v>
+      </c>
+      <c r="C14">
+        <v>82</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1400</v>
+      </c>
+      <c r="B15">
+        <v>488</v>
+      </c>
+      <c r="C15">
+        <v>94</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16">
+        <v>558</v>
+      </c>
+      <c r="C16">
+        <v>112</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+      <c r="B17">
+        <v>635</v>
+      </c>
+      <c r="C17">
+        <v>139</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+      <c r="B18">
+        <v>723</v>
+      </c>
+      <c r="C18">
+        <v>139</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+      <c r="B19">
+        <v>809</v>
+      </c>
+      <c r="C19">
+        <v>155</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+      <c r="B20">
+        <v>895</v>
+      </c>
+      <c r="C20">
+        <v>175</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>995</v>
+      </c>
+      <c r="C21">
+        <v>192</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2100</v>
+      </c>
+      <c r="B22">
+        <v>1099</v>
+      </c>
+      <c r="C22">
+        <v>221</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2200</v>
+      </c>
+      <c r="B23">
+        <v>1214</v>
+      </c>
+      <c r="C23">
+        <v>234</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2300</v>
+      </c>
+      <c r="B24">
+        <v>1319</v>
+      </c>
+      <c r="C24">
+        <v>256</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2400</v>
+      </c>
+      <c r="B25">
+        <v>1439</v>
+      </c>
+      <c r="C25">
+        <v>279</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2500</v>
+      </c>
+      <c r="B26">
+        <v>1571</v>
+      </c>
+      <c r="C26">
+        <v>303</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2600</v>
+      </c>
+      <c r="B27">
+        <v>1698</v>
+      </c>
+      <c r="C27">
+        <v>327</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2700</v>
+      </c>
+      <c r="B28">
+        <v>1816</v>
+      </c>
+      <c r="C28">
+        <v>355</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2800</v>
+      </c>
+      <c r="B29">
+        <v>1957</v>
+      </c>
+      <c r="C29">
+        <v>380</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2900</v>
+      </c>
+      <c r="B30">
+        <v>2114</v>
+      </c>
+      <c r="C30">
+        <v>408</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>2325</v>
+      </c>
+      <c r="C31">
+        <v>436</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" customWidth="1"/>
+    <col min="4" max="4" width="1.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>92</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>159</v>
+      </c>
+      <c r="C9">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>202</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>251</v>
+      </c>
+      <c r="C11">
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12">
+        <v>311</v>
+      </c>
+      <c r="C12">
+        <v>113</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+      <c r="B13">
+        <v>359</v>
+      </c>
+      <c r="C13">
+        <v>141</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+      <c r="B14">
+        <v>428</v>
+      </c>
+      <c r="C14">
+        <v>184</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1400</v>
+      </c>
+      <c r="B15">
+        <v>489</v>
+      </c>
+      <c r="C15">
+        <v>196</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16">
+        <v>562</v>
+      </c>
+      <c r="C16">
+        <v>208</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+      <c r="B17">
+        <v>664</v>
+      </c>
+      <c r="C17">
+        <v>237</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+      <c r="B18">
+        <v>723</v>
+      </c>
+      <c r="C18">
+        <v>267</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+      <c r="B19">
+        <v>809</v>
+      </c>
+      <c r="C19">
+        <v>297</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+      <c r="B20">
+        <v>915</v>
+      </c>
+      <c r="C20">
+        <v>360</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21">
+        <v>369</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2100</v>
+      </c>
+      <c r="B22">
+        <v>1112</v>
+      </c>
+      <c r="C22">
+        <v>405</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2200</v>
+      </c>
+      <c r="B23">
+        <v>1227</v>
+      </c>
+      <c r="C23">
+        <v>446</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2300</v>
+      </c>
+      <c r="B24">
+        <v>1321</v>
+      </c>
+      <c r="C24">
+        <v>515</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2400</v>
+      </c>
+      <c r="B25">
+        <v>1441</v>
+      </c>
+      <c r="C25">
+        <v>540</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2500</v>
+      </c>
+      <c r="B26">
+        <v>1598</v>
+      </c>
+      <c r="C26">
+        <v>581</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2600</v>
+      </c>
+      <c r="B27">
+        <v>1689</v>
+      </c>
+      <c r="C27">
+        <v>652</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2700</v>
+      </c>
+      <c r="B28">
+        <v>1820</v>
+      </c>
+      <c r="C28">
+        <v>722</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2800</v>
+      </c>
+      <c r="B29">
+        <v>1957</v>
+      </c>
+      <c r="C29">
+        <v>785</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2900</v>
+      </c>
+      <c r="B30">
+        <v>2103</v>
+      </c>
+      <c r="C30">
+        <v>832</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>2246</v>
+      </c>
+      <c r="C31">
+        <v>887</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="4.875" customWidth="1"/>
+    <col min="4" max="4" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>126</v>
+      </c>
+      <c r="C8">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>164</v>
+      </c>
+      <c r="C9">
+        <v>115</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>217</v>
+      </c>
+      <c r="C10">
+        <v>134</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>259</v>
+      </c>
+      <c r="C11">
+        <v>198</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12">
+        <v>310</v>
+      </c>
+      <c r="C12">
+        <v>224</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+      <c r="B13">
+        <v>370</v>
+      </c>
+      <c r="C13">
+        <v>238</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+      <c r="B14">
+        <v>465</v>
+      </c>
+      <c r="C14">
+        <v>274</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1400</v>
+      </c>
+      <c r="B15">
+        <v>506</v>
+      </c>
+      <c r="C15">
+        <v>348</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16">
+        <v>574</v>
+      </c>
+      <c r="C16">
+        <v>362</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+      <c r="B17">
+        <v>673</v>
+      </c>
+      <c r="C17">
+        <v>462</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+      <c r="B18">
+        <v>739</v>
+      </c>
+      <c r="C18">
+        <v>466</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+      <c r="B19">
+        <v>854</v>
+      </c>
+      <c r="C19">
+        <v>526</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+      <c r="B20">
+        <v>922</v>
+      </c>
+      <c r="C20">
+        <v>582</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>1094</v>
+      </c>
+      <c r="C21">
+        <v>645</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2100</v>
+      </c>
+      <c r="B22">
+        <v>1128</v>
+      </c>
+      <c r="C22">
+        <v>717</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2200</v>
+      </c>
+      <c r="B23">
+        <v>1265</v>
+      </c>
+      <c r="C23">
+        <v>786</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2300</v>
+      </c>
+      <c r="B24">
+        <v>1352</v>
+      </c>
+      <c r="C24">
+        <v>860</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2400</v>
+      </c>
+      <c r="B25">
+        <v>1581</v>
+      </c>
+      <c r="C25">
+        <v>933</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2500</v>
+      </c>
+      <c r="B26">
+        <v>1597</v>
+      </c>
+      <c r="C26">
+        <v>1015</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2600</v>
+      </c>
+      <c r="B27">
+        <v>1785</v>
+      </c>
+      <c r="C27">
+        <v>1101</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2700</v>
+      </c>
+      <c r="B28">
+        <v>1864</v>
+      </c>
+      <c r="C28">
+        <v>1181</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2800</v>
+      </c>
+      <c r="B29">
+        <v>2012</v>
+      </c>
+      <c r="C29">
+        <v>1269</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2900</v>
+      </c>
+      <c r="B30">
+        <v>2214</v>
+      </c>
+      <c r="C30">
+        <v>1367</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>2301</v>
+      </c>
+      <c r="C31">
+        <v>1523</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="3.875" customWidth="1"/>
+    <col min="4" max="4" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12">
+        <v>121</v>
+      </c>
+      <c r="C12">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+      <c r="B13">
+        <v>153</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+      <c r="B14">
+        <v>166</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1400</v>
+      </c>
+      <c r="B15">
+        <v>195</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16">
+        <v>229</v>
+      </c>
+      <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+      <c r="B17">
+        <v>263</v>
+      </c>
+      <c r="C17">
+        <v>61</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+      <c r="B18">
+        <v>288</v>
+      </c>
+      <c r="C18">
+        <v>68</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+      <c r="B19">
+        <v>320</v>
+      </c>
+      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+      <c r="B20">
+        <v>368</v>
+      </c>
+      <c r="C20">
+        <v>89</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>397</v>
+      </c>
+      <c r="C21">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2100</v>
+      </c>
+      <c r="B22">
+        <v>435</v>
+      </c>
+      <c r="C22">
+        <v>113</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2200</v>
+      </c>
+      <c r="B23">
+        <v>478</v>
+      </c>
+      <c r="C23">
+        <v>115</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2300</v>
+      </c>
+      <c r="B24">
+        <v>526</v>
+      </c>
+      <c r="C24">
+        <v>127</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2400</v>
+      </c>
+      <c r="B25">
+        <v>569</v>
+      </c>
+      <c r="C25">
+        <v>144</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2500</v>
+      </c>
+      <c r="B26">
+        <v>618</v>
+      </c>
+      <c r="C26">
+        <v>161</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2600</v>
+      </c>
+      <c r="B27">
+        <v>668</v>
+      </c>
+      <c r="C27">
+        <v>185</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2700</v>
+      </c>
+      <c r="B28">
+        <v>720</v>
+      </c>
+      <c r="C28">
+        <v>188</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2800</v>
+      </c>
+      <c r="B29">
+        <v>776</v>
+      </c>
+      <c r="C29">
+        <v>202</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2900</v>
+      </c>
+      <c r="B30">
+        <v>833</v>
+      </c>
+      <c r="C30">
+        <v>205</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>909</v>
+      </c>
+      <c r="C31">
+        <v>215</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="4.875" customWidth="1"/>
+    <col min="4" max="4" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>91</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>126</v>
+      </c>
+      <c r="C10">
+        <v>114</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>155</v>
+      </c>
+      <c r="C11">
+        <v>124</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12">
+        <v>198</v>
+      </c>
+      <c r="C12">
+        <v>148</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+      <c r="B13">
+        <v>230</v>
+      </c>
+      <c r="C13">
+        <v>172</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+      <c r="B14">
+        <v>265</v>
+      </c>
+      <c r="C14">
+        <v>215</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1400</v>
+      </c>
+      <c r="B15">
+        <v>306</v>
+      </c>
+      <c r="C15">
+        <v>232</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16">
+        <v>367</v>
+      </c>
+      <c r="C16">
+        <v>266</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+      <c r="B17">
+        <v>390</v>
+      </c>
+      <c r="C17">
+        <v>314</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+      <c r="B18">
+        <v>467</v>
+      </c>
+      <c r="C18">
+        <v>390</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+      <c r="B19">
+        <v>500</v>
+      </c>
+      <c r="C19">
+        <v>388</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+      <c r="B20">
+        <v>577</v>
+      </c>
+      <c r="C20">
+        <v>430</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>612</v>
+      </c>
+      <c r="C21">
+        <v>481</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2100</v>
+      </c>
+      <c r="B22">
+        <v>712</v>
+      </c>
+      <c r="C22">
+        <v>583</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2200</v>
+      </c>
+      <c r="B23">
+        <v>745</v>
+      </c>
+      <c r="C23">
+        <v>583</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2300</v>
+      </c>
+      <c r="B24">
+        <v>855</v>
+      </c>
+      <c r="C24">
+        <v>637</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2400</v>
+      </c>
+      <c r="B25">
+        <v>889</v>
+      </c>
+      <c r="C25">
+        <v>697</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2500</v>
+      </c>
+      <c r="B26">
+        <v>1002</v>
+      </c>
+      <c r="C26">
+        <v>861</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2600</v>
+      </c>
+      <c r="B27">
+        <v>1046</v>
+      </c>
+      <c r="C27">
+        <v>819</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2700</v>
+      </c>
+      <c r="B28">
+        <v>1120</v>
+      </c>
+      <c r="C28">
+        <v>957</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2800</v>
+      </c>
+      <c r="B29">
+        <v>1207</v>
+      </c>
+      <c r="C29">
+        <v>944</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2900</v>
+      </c>
+      <c r="B30">
+        <v>1375</v>
+      </c>
+      <c r="C30">
+        <v>1012</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>1384</v>
+      </c>
+      <c r="C31">
+        <v>1066</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14145" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14145" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="grafieken" sheetId="4" r:id="rId1"/>
@@ -16,10 +16,14 @@
     <sheet name="new 0.4" sheetId="12" r:id="rId7"/>
     <sheet name="0.1 opti" sheetId="14" r:id="rId8"/>
     <sheet name="0.4 opti" sheetId="13" r:id="rId9"/>
+    <sheet name="0.4 worst" sheetId="15" r:id="rId10"/>
+    <sheet name="0.1 worst" sheetId="16" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="stat" localSheetId="10">'0.1 worst'!$A$2:$D$31</definedName>
     <definedName name="stat" localSheetId="2">'0.2'!$A$1:$D$30</definedName>
     <definedName name="stat" localSheetId="3">'0.4'!$A$1:$D$30</definedName>
+    <definedName name="stat" localSheetId="9">'0.4 worst'!$A$2:$D$31</definedName>
     <definedName name="stat_1" localSheetId="1">'0.1'!$A$2:$D$31</definedName>
     <definedName name="stat_1" localSheetId="7">'0.1 opti'!$A$2:$D$31</definedName>
     <definedName name="stat_1" localSheetId="8">'0.4 opti'!$A$2:$D$31</definedName>
@@ -108,11 +112,31 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="8" name="stat4" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="H:\Files\workspace\TMI\stat.txt" space="1" consecutive="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="stat5" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="H:\Files\workspace\TMI\stat.txt" space="1" consecutive="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
   <si>
     <t>Algoritme 1</t>
   </si>
@@ -4218,6 +4242,1640 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="6491520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82268072916666668"/>
+          <c:y val="0.37379069870508841"/>
+          <c:w val="0.17084427083333334"/>
+          <c:h val="0.24042391107484956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Uitvoeringstijd met</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> r&lt;0.1, worst case</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10524409722222222"/>
+          <c:y val="0.13112667046604404"/>
+          <c:w val="0.69087239583333326"/>
+          <c:h val="0.70447665254164837"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.1 worst'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.1 worst'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.1 worst'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1253</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2577</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2973</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3181</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.1 worst'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.1 worst'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.1 worst'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1127</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1227</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1876</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2185</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2372</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2638</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3483</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.1 worst'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.1 worst'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.1 worst'!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="84322944"/>
+        <c:axId val="90342528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84322944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>Aantal cirkels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90342528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="90342528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84322944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82268072916666668"/>
+          <c:y val="0.37379069870508841"/>
+          <c:w val="0.17084427083333334"/>
+          <c:h val="0.24042391107484956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Uitvoeringstijd met</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> r&lt;0.4, worst case</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10524409722222222"/>
+          <c:y val="0.13112667046604404"/>
+          <c:w val="0.69087239583333326"/>
+          <c:h val="0.70447665254164837"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.4 worst'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.4 worst'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.4 worst'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1237</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1606</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2508</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2677</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2894</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3197</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3452</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.4 worst'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.4 worst'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.4 worst'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1545</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1886</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2156</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2269</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2684</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2898</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3129</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3362</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3708</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.4 worst'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.4 worst'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.4 worst'!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="196115072"/>
+        <c:axId val="196122496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="196115072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>Aantal cirkels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196122496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="196122496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100"/>
+                  <a:t>tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1100" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196115072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4410,11 +6068,79 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>84301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11" title="Uitvoerinstijd bij straal 0.1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>606975</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>8101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12" title="Uitvoerinstijd bij straal 0.1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4443,6 +6169,10 @@
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stat" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4769,8 +6499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4782,6 +6512,906 @@
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="4.875" customWidth="1"/>
+    <col min="4" max="4" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>109</v>
+      </c>
+      <c r="C6">
+        <v>111</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>156</v>
+      </c>
+      <c r="C7">
+        <v>155</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>216</v>
+      </c>
+      <c r="C8">
+        <v>210</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>282</v>
+      </c>
+      <c r="C9">
+        <v>275</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>352</v>
+      </c>
+      <c r="C10">
+        <v>369</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>441</v>
+      </c>
+      <c r="C11">
+        <v>431</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12">
+        <v>543</v>
+      </c>
+      <c r="C12">
+        <v>521</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+      <c r="B13">
+        <v>632</v>
+      </c>
+      <c r="C13">
+        <v>620</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+      <c r="B14">
+        <v>733</v>
+      </c>
+      <c r="C14">
+        <v>765</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1400</v>
+      </c>
+      <c r="B15">
+        <v>844</v>
+      </c>
+      <c r="C15">
+        <v>887</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16">
+        <v>966</v>
+      </c>
+      <c r="C16">
+        <v>968</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+      <c r="B17">
+        <v>1136</v>
+      </c>
+      <c r="C17">
+        <v>1098</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+      <c r="B18">
+        <v>1237</v>
+      </c>
+      <c r="C18">
+        <v>1287</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+      <c r="B19">
+        <v>1383</v>
+      </c>
+      <c r="C19">
+        <v>1389</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+      <c r="B20">
+        <v>1606</v>
+      </c>
+      <c r="C20">
+        <v>1545</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>1710</v>
+      </c>
+      <c r="C21">
+        <v>1782</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2100</v>
+      </c>
+      <c r="B22">
+        <v>1885</v>
+      </c>
+      <c r="C22">
+        <v>1886</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2200</v>
+      </c>
+      <c r="B23">
+        <v>2093</v>
+      </c>
+      <c r="C23">
+        <v>2156</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2300</v>
+      </c>
+      <c r="B24">
+        <v>2264</v>
+      </c>
+      <c r="C24">
+        <v>2269</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2400</v>
+      </c>
+      <c r="B25">
+        <v>2508</v>
+      </c>
+      <c r="C25">
+        <v>2471</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2500</v>
+      </c>
+      <c r="B26">
+        <v>2677</v>
+      </c>
+      <c r="C26">
+        <v>2684</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2600</v>
+      </c>
+      <c r="B27">
+        <v>2894</v>
+      </c>
+      <c r="C27">
+        <v>2898</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2700</v>
+      </c>
+      <c r="B28">
+        <v>3197</v>
+      </c>
+      <c r="C28">
+        <v>3129</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2800</v>
+      </c>
+      <c r="B29">
+        <v>3452</v>
+      </c>
+      <c r="C29">
+        <v>3362</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2900</v>
+      </c>
+      <c r="B30">
+        <v>3600</v>
+      </c>
+      <c r="C30">
+        <v>3708</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>3954</v>
+      </c>
+      <c r="C31">
+        <v>3861</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="4.875" customWidth="1"/>
+    <col min="4" max="4" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>139</v>
+      </c>
+      <c r="C7">
+        <v>139</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>188</v>
+      </c>
+      <c r="C8">
+        <v>186</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>242</v>
+      </c>
+      <c r="C9">
+        <v>248</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>306</v>
+      </c>
+      <c r="C10">
+        <v>307</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>381</v>
+      </c>
+      <c r="C11">
+        <v>379</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12">
+        <v>459</v>
+      </c>
+      <c r="C12">
+        <v>470</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+      <c r="B13">
+        <v>544</v>
+      </c>
+      <c r="C13">
+        <v>551</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+      <c r="B14">
+        <v>640</v>
+      </c>
+      <c r="C14">
+        <v>648</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1400</v>
+      </c>
+      <c r="B15">
+        <v>743</v>
+      </c>
+      <c r="C15">
+        <v>751</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16">
+        <v>860</v>
+      </c>
+      <c r="C16">
+        <v>866</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+      <c r="B17">
+        <v>984</v>
+      </c>
+      <c r="C17">
+        <v>1004</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+      <c r="B18">
+        <v>1113</v>
+      </c>
+      <c r="C18">
+        <v>1127</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+      <c r="B19">
+        <v>1253</v>
+      </c>
+      <c r="C19">
+        <v>1227</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+      <c r="B20">
+        <v>1385</v>
+      </c>
+      <c r="C20">
+        <v>1368</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>1513</v>
+      </c>
+      <c r="C21">
+        <v>1526</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2100</v>
+      </c>
+      <c r="B22">
+        <v>1670</v>
+      </c>
+      <c r="C22">
+        <v>1711</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2200</v>
+      </c>
+      <c r="B23">
+        <v>1832</v>
+      </c>
+      <c r="C23">
+        <v>1876</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2300</v>
+      </c>
+      <c r="B24">
+        <v>2165</v>
+      </c>
+      <c r="C24">
+        <v>2007</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2400</v>
+      </c>
+      <c r="B25">
+        <v>2228</v>
+      </c>
+      <c r="C25">
+        <v>2185</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2500</v>
+      </c>
+      <c r="B26">
+        <v>2399</v>
+      </c>
+      <c r="C26">
+        <v>2372</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2600</v>
+      </c>
+      <c r="B27">
+        <v>2577</v>
+      </c>
+      <c r="C27">
+        <v>2638</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2700</v>
+      </c>
+      <c r="B28">
+        <v>2761</v>
+      </c>
+      <c r="C28">
+        <v>3301</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2800</v>
+      </c>
+      <c r="B29">
+        <v>2973</v>
+      </c>
+      <c r="C29">
+        <v>3031</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2900</v>
+      </c>
+      <c r="B30">
+        <v>3181</v>
+      </c>
+      <c r="C30">
+        <v>3241</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>3405</v>
+      </c>
+      <c r="C31">
+        <v>3483</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6129,7 +8759,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7480,8 +10110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7931,7 +10561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
